--- a/S2/Verschillen_S1-SPF-Vs-Verschillen_S2-SPF - Copie.xlsx
+++ b/S2/Verschillen_S1-SPF-Vs-Verschillen_S2-SPF - Copie.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Videos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RDGithub\publicinfo\S2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD33214D-43BC-4199-8195-6FF9B01B42A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7D5C02-4562-40A6-B740-95152E8B5714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18470" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,13 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
-  <si>
-    <t>Ecart moyen</t>
-  </si>
-  <si>
-    <t>Somme des écarts</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>Verschillen S1</t>
   </si>
@@ -135,6 +129,12 @@
   </si>
   <si>
     <t>Tevredenheid over de fysieke werkomstandigheden</t>
+  </si>
+  <si>
+    <t>Gemiddeld verschil</t>
+  </si>
+  <si>
+    <t>Som der verschillen</t>
   </si>
 </sst>
 </file>
@@ -2607,13 +2607,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>425451</xdr:colOff>
+      <xdr:colOff>425450</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>749301</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
@@ -2953,18 +2953,18 @@
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="6">
         <v>-11</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6">
         <v>-11</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="9">
         <v>-20</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="9">
         <v>-14</v>
@@ -2996,27 +2996,27 @@
     </row>
     <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="7"/>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="6">
         <v>-4</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="9">
         <v>-16</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="6">
         <v>-11</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="6">
         <v>-7</v>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="6">
         <v>-2</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="6">
         <v>-10</v>
@@ -3056,7 +3056,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="6">
         <v>-12</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="6">
         <v>-10</v>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="6">
         <v>-10</v>
@@ -3080,13 +3080,13 @@
     </row>
     <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="6">
         <v>3</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="6">
         <v>-8</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="6">
         <v>-11</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" s="6">
         <v>-8</v>
@@ -3118,13 +3118,13 @@
     </row>
     <row r="22" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="7"/>
     </row>
     <row r="23" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="9">
         <v>-16</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="24" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" s="6">
         <v>1</v>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="25" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" s="9">
         <v>-14</v>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="26" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" s="6">
         <v>-8</v>
@@ -3156,34 +3156,52 @@
     </row>
     <row r="27" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" s="6">
         <v>-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="8">
+        <f>SUM(B2:B28)/22</f>
+        <v>-9.2272727272727266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="13">
+        <f>SUM(B2:B28)</f>
+        <v>-203</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="32" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B34" s="6">
         <v>0</v>
@@ -3191,7 +3209,7 @@
     </row>
     <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B35" s="6">
         <v>-6</v>
@@ -3199,7 +3217,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B36" s="6">
         <v>1</v>
@@ -3207,27 +3225,27 @@
     </row>
     <row r="37" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B37" s="6">
         <v>-3</v>
       </c>
       <c r="D37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B38" s="7"/>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B39" s="6">
         <v>-6</v>
@@ -3235,7 +3253,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B40" s="6">
         <v>-6</v>
@@ -3243,7 +3261,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B41" s="12">
         <v>10</v>
@@ -3251,7 +3269,7 @@
     </row>
     <row r="42" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B42" s="12">
         <v>10</v>
@@ -3259,7 +3277,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B43" s="6">
         <v>1</v>
@@ -3267,7 +3285,7 @@
     </row>
     <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B44" s="6">
         <v>2</v>
@@ -3275,7 +3293,7 @@
     </row>
     <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B45" s="6">
         <v>3</v>
@@ -3283,7 +3301,7 @@
     </row>
     <row r="46" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B46" s="12">
         <v>6</v>
@@ -3291,7 +3309,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B47" s="6">
         <v>2</v>
@@ -3299,13 +3317,13 @@
     </row>
     <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B49" s="9">
         <v>-8</v>
@@ -3313,7 +3331,7 @@
     </row>
     <row r="50" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B50" s="6">
         <v>-5</v>
@@ -3321,7 +3339,7 @@
     </row>
     <row r="51" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B51" s="12">
         <v>12</v>
@@ -3329,7 +3347,7 @@
     </row>
     <row r="52" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B52" s="6">
         <v>5</v>
@@ -3337,13 +3355,13 @@
     </row>
     <row r="53" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B53" s="7"/>
     </row>
     <row r="54" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B54" s="6">
         <v>1</v>
@@ -3351,7 +3369,7 @@
     </row>
     <row r="55" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B55" s="6">
         <v>-4</v>
@@ -3359,7 +3377,7 @@
     </row>
     <row r="56" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B56" s="6">
         <v>5</v>
@@ -3367,7 +3385,7 @@
     </row>
     <row r="57" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B57" s="6">
         <v>-8</v>
@@ -3375,13 +3393,13 @@
     </row>
     <row r="58" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B58" s="7"/>
     </row>
     <row r="59" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B59" s="6">
         <v>6</v>
@@ -3389,7 +3407,7 @@
     </row>
     <row r="60" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="5" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B60" s="8">
         <f>SUM(B33:B59)/22</f>
@@ -3398,7 +3416,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B61" s="13">
         <f>SUM(B33:B59)</f>
